--- a/Automation_vinayak/scripts/Writesheet.xlsx
+++ b/Automation_vinayak/scripts/Writesheet.xlsx
@@ -23,13 +23,13 @@
     <t>time taken to run in sec</t>
   </si>
   <si>
-    <t>flipkart</t>
+    <t>Norway</t>
   </si>
   <si>
-    <t>Fri Apr 07 00:38:53 IST 2017</t>
+    <t>Mon Jul 09 14:46:24 IST 2018</t>
   </si>
   <si>
-    <t>31</t>
+    <t>1531127784</t>
   </si>
 </sst>
 </file>
